--- a/results/real_data_guru_0.1_opt_constrained/k=0.1/ROI_greedy/dataset_08/results_excel_26-9-22_guru_constrained_1_.xlsx
+++ b/results/real_data_guru_0.1_opt_constrained/k=0.1/ROI_greedy/dataset_08/results_excel_26-9-22_guru_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\real_data_guru_0.1_opt_constrained\k=0.1\ROI_greedy\dataset_08\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D48CF5-FF5A-4B38-9FC4-72156780A109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>dataset</t>
   </si>
@@ -122,13 +141,25 @@
   </si>
   <si>
     <t>Official_Experiment_ROI_dataset_08_instance_10_9_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +173,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -180,22 +220,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -237,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,9 +320,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +372,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,14 +565,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -603,7 +692,7 @@
         <v>0.1</v>
       </c>
       <c r="N2">
-        <v>0.991263440860215</v>
+        <v>0.99126344086021501</v>
       </c>
       <c r="O2">
         <v>3426</v>
@@ -612,22 +701,22 @@
         <v>450</v>
       </c>
       <c r="Q2">
-        <v>2.0299010961197</v>
+        <v>2.0299010961196999</v>
       </c>
       <c r="R2">
-        <v>2062.544506746135</v>
+        <v>2062.5445067461351</v>
       </c>
       <c r="S2">
-        <v>7.613333333333333</v>
+        <v>7.6133333333333333</v>
       </c>
       <c r="T2">
-        <v>8.763157894736842</v>
+        <v>8.7631578947368425</v>
       </c>
       <c r="U2">
-        <v>2.170556330254058</v>
+        <v>2.1705563302540578</v>
       </c>
       <c r="V2">
-        <v>2125.188594503458</v>
+        <v>2125.1885945034578</v>
       </c>
       <c r="W2">
         <v>17109</v>
@@ -639,10 +728,10 @@
         <v>17083</v>
       </c>
       <c r="Z2">
-        <v>1.001521980916701</v>
+        <v>1.0015219809167011</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -683,7 +772,7 @@
         <v>0.1</v>
       </c>
       <c r="N3">
-        <v>0.8180515759312321</v>
+        <v>0.81805157593123212</v>
       </c>
       <c r="O3">
         <v>3307</v>
@@ -698,16 +787,16 @@
         <v>1834.290646656201</v>
       </c>
       <c r="S3">
-        <v>6.421359223300971</v>
+        <v>6.4213592233009713</v>
       </c>
       <c r="T3">
-        <v>8.742372881355932</v>
+        <v>8.7423728813559318</v>
       </c>
       <c r="U3">
-        <v>2.168181649541525</v>
+        <v>2.1681816495415251</v>
       </c>
       <c r="V3">
-        <v>1644.38641338525</v>
+        <v>1644.3864133852501</v>
       </c>
       <c r="W3">
         <v>18801</v>
@@ -722,7 +811,7 @@
         <v>1.027770185316788</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -763,7 +852,7 @@
         <v>0.1</v>
       </c>
       <c r="N4">
-        <v>0.8625330449411199</v>
+        <v>0.86253304494111993</v>
       </c>
       <c r="O4">
         <v>4671</v>
@@ -772,22 +861,22 @@
         <v>510</v>
       </c>
       <c r="Q4">
-        <v>2.214717734783736</v>
+        <v>2.2147177347837359</v>
       </c>
       <c r="R4">
         <v>3031.493955260295</v>
       </c>
       <c r="S4">
-        <v>9.158823529411764</v>
+        <v>9.1588235294117641</v>
       </c>
       <c r="T4">
-        <v>12.96333333333333</v>
+        <v>12.963333333333329</v>
       </c>
       <c r="U4">
         <v>2.562124859499546</v>
       </c>
       <c r="V4">
-        <v>2820.362542150136</v>
+        <v>2820.3625421501361</v>
       </c>
       <c r="W4">
         <v>24203</v>
@@ -799,10 +888,10 @@
         <v>23631</v>
       </c>
       <c r="Z4">
-        <v>1.024205492784901</v>
+        <v>1.0242054927849009</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,7 +932,7 @@
         <v>0.1</v>
       </c>
       <c r="N5">
-        <v>0.9115570419918246</v>
+        <v>0.91155704199182463</v>
       </c>
       <c r="O5">
         <v>3186</v>
@@ -858,13 +947,13 @@
         <v>1769.327954688855</v>
       </c>
       <c r="S5">
-        <v>6.436363636363637</v>
+        <v>6.4363636363636374</v>
       </c>
       <c r="T5">
-        <v>9.315254237288135</v>
+        <v>9.3152542372881353</v>
       </c>
       <c r="U5">
-        <v>2.23165329700242</v>
+        <v>2.2316532970024201</v>
       </c>
       <c r="V5">
         <v>1794.662277384286</v>
@@ -882,7 +971,7 @@
         <v>1.011245511245511</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -923,7 +1012,7 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>0.9302013422818792</v>
+        <v>0.93020134228187923</v>
       </c>
       <c r="O6">
         <v>3360</v>
@@ -932,13 +1021,13 @@
         <v>380</v>
       </c>
       <c r="Q6">
-        <v>2.179525000236818</v>
+        <v>2.1795250002368181</v>
       </c>
       <c r="R6">
         <v>2151.780499910009</v>
       </c>
       <c r="S6">
-        <v>8.842105263157896</v>
+        <v>8.8421052631578956</v>
       </c>
       <c r="T6">
         <v>10.9</v>
@@ -947,7 +1036,7 @@
         <v>2.388762789235098</v>
       </c>
       <c r="V6">
-        <v>2103.146419014172</v>
+        <v>2103.1464190141719</v>
       </c>
       <c r="W6">
         <v>20210</v>
@@ -962,7 +1051,7 @@
         <v>1.01039896010399</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1003,7 +1092,7 @@
         <v>0.1</v>
       </c>
       <c r="N7">
-        <v>0.9697147897677154</v>
+        <v>0.96971478976771541</v>
       </c>
       <c r="O7">
         <v>3851</v>
@@ -1012,22 +1101,22 @@
         <v>450</v>
       </c>
       <c r="Q7">
-        <v>2.146840551050543</v>
+        <v>2.1468405510505431</v>
       </c>
       <c r="R7">
         <v>2434.921752027255</v>
       </c>
       <c r="S7">
-        <v>8.557777777777778</v>
+        <v>8.5577777777777779</v>
       </c>
       <c r="T7">
-        <v>11.81311475409836</v>
+        <v>11.813114754098359</v>
       </c>
       <c r="U7">
-        <v>2.469210334140682</v>
+        <v>2.4692103341406821</v>
       </c>
       <c r="V7">
-        <v>2544.890848087092</v>
+        <v>2544.8908480870919</v>
       </c>
       <c r="W7">
         <v>19623</v>
@@ -1042,7 +1131,7 @@
         <v>1.005276639344262</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1083,7 +1172,7 @@
         <v>0.1</v>
       </c>
       <c r="N8">
-        <v>0.8997289972899729</v>
+        <v>0.89972899728997291</v>
       </c>
       <c r="O8">
         <v>2634</v>
@@ -1092,19 +1181,19 @@
         <v>420</v>
       </c>
       <c r="Q8">
-        <v>1.836004171025812</v>
+        <v>1.8360041710258119</v>
       </c>
       <c r="R8">
         <v>1442.878248169159</v>
       </c>
       <c r="S8">
-        <v>6.271428571428571</v>
+        <v>6.2714285714285714</v>
       </c>
       <c r="T8">
-        <v>8.377777777777778</v>
+        <v>8.3777777777777782</v>
       </c>
       <c r="U8">
-        <v>2.125582697677691</v>
+        <v>2.1255826976776908</v>
       </c>
       <c r="V8">
         <v>1418.092671627023</v>
@@ -1119,10 +1208,10 @@
         <v>17216</v>
       </c>
       <c r="Z8">
-        <v>1.012894981412639</v>
+        <v>1.0128949814126389</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1163,7 +1252,7 @@
         <v>0.1</v>
       </c>
       <c r="N9">
-        <v>0.8928456849534809</v>
+        <v>0.89284568495348093</v>
       </c>
       <c r="O9">
         <v>3704</v>
@@ -1175,10 +1264,10 @@
         <v>1.842143775937974</v>
       </c>
       <c r="R9">
-        <v>2035.66160352441</v>
+        <v>2035.6616035244101</v>
       </c>
       <c r="S9">
-        <v>6.310051107325383</v>
+        <v>6.3100511073253829</v>
       </c>
       <c r="T9">
         <v>10.93928571428571</v>
@@ -1187,7 +1276,7 @@
         <v>2.392360503663526</v>
       </c>
       <c r="V9">
-        <v>2113.139058974213</v>
+        <v>2113.1390589742132</v>
       </c>
       <c r="W9">
         <v>20991</v>
@@ -1202,7 +1291,7 @@
         <v>1.016168853173258</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1255,19 +1344,19 @@
         <v>2.197941166403071</v>
       </c>
       <c r="R10">
-        <v>1800.638238415048</v>
+        <v>1800.6382384150479</v>
       </c>
       <c r="S10">
-        <v>9.006451612903225</v>
+        <v>9.0064516129032253</v>
       </c>
       <c r="T10">
-        <v>9.006451612903225</v>
+        <v>9.0064516129032253</v>
       </c>
       <c r="U10">
         <v>2.197941166403071</v>
       </c>
       <c r="V10">
-        <v>1800.638238415048</v>
+        <v>1800.6382384150479</v>
       </c>
       <c r="W10">
         <v>17208</v>
@@ -1282,7 +1371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1323,7 +1412,7 @@
         <v>0.1</v>
       </c>
       <c r="N11">
-        <v>0.9545934530095037</v>
+        <v>0.95459345300950371</v>
       </c>
       <c r="O11">
         <v>3525</v>
@@ -1335,13 +1424,13 @@
         <v>1.639677797623819</v>
       </c>
       <c r="R11">
-        <v>1719.460386425308</v>
+        <v>1719.4603864253079</v>
       </c>
       <c r="S11">
-        <v>5.153508771929824</v>
+        <v>5.1535087719298236</v>
       </c>
       <c r="T11">
-        <v>9.748387096774193</v>
+        <v>9.7483870967741932</v>
       </c>
       <c r="U11">
         <v>2.277101845353493</v>
@@ -1359,10 +1448,53 @@
         <v>18647</v>
       </c>
       <c r="Z11">
-        <v>1.006918002895908</v>
+        <v>1.0069180028959079</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <f>AVERAGE(J2:J11)</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2">
+        <f>AVERAGE(N2:N11)</f>
+        <v>0.92304893710269442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2">
+        <f>AVERAGE(Z2:Z11)</f>
+        <v>1.0116400607193958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2">
+        <f>MIN(N2:N11)</f>
+        <v>0.81805157593123212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <f>MAX(Z2:Z11)</f>
+        <v>1.027770185316788</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>